--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -54,10 +54,11 @@
     <t>Price</t>
   </si>
   <si>
-    <t>金钱</t>
-  </si>
-  <si>
     <t>item1</t>
+  </si>
+  <si>
+    <t>易拉罐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1011,7 +1012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1071,13 +1074,13 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -18,8 +18,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>PJ</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1、材料
+2、消耗品</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +84,131 @@
   </si>
   <si>
     <t>易拉罐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复健康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复精力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复体力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加力量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加敏捷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加体质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加魅力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加感知</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一堆烂布，可用来缝衣服</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包治百病的灵药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝命穿肠的毒药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>item3</t>
+  </si>
+  <si>
+    <t>item4</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungry</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perception</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>烂布</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>易拉罐，可以换取少量的金钱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +375,14 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1009,16 +1168,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="15" max="15" width="9.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,13 +1193,46 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1046,13 +1243,46 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1063,13 +1293,46 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1077,17 +1340,85 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>-50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -210,6 +210,24 @@
   <si>
     <t>Type</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧饼</t>
+  </si>
+  <si>
+    <t>村里人最喜欢的一种食物</t>
+  </si>
+  <si>
+    <t>item5</t>
+  </si>
+  <si>
+    <t>果子</t>
+  </si>
+  <si>
+    <t>香甜可口的果子</t>
+  </si>
+  <si>
+    <t>item6</t>
   </si>
 </sst>
 </file>
@@ -1169,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1415,6 +1433,52 @@
         <v>-50</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -828,8 +828,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,292 +1193,295 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="N17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="15" max="15" width="9.875" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1001</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1002</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1003</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1004</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>-50</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1005</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>1006</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>30</v>
       </c>
     </row>

--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -80,13 +80,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>item1</t>
-  </si>
-  <si>
-    <t>易拉罐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>恢复健康</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -127,18 +120,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>一堆烂布，可用来缝衣服</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>包治百病的灵药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝命穿肠的毒药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>item2</t>
   </si>
   <si>
@@ -188,22 +169,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>毒药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>丹药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>烂布</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>易拉罐，可以换取少量的金钱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -215,19 +180,74 @@
     <t>烧饼</t>
   </si>
   <si>
-    <t>村里人最喜欢的一种食物</t>
-  </si>
-  <si>
     <t>item5</t>
   </si>
   <si>
-    <t>果子</t>
-  </si>
-  <si>
-    <t>香甜可口的果子</t>
-  </si>
-  <si>
     <t>item6</t>
+  </si>
+  <si>
+    <t>止血草</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>野果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎布</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一堆碎布，可用来缝补衣物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用可恢复10点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>香甜可口的果子，食用可恢复10点饥饿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的食物之一，食用可恢复20点饥饿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>木棍</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>散落在树林里，可用来生火</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -1190,16 +1210,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="A1:XFD1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="14" width="9" style="1"/>
     <col min="15" max="15" width="9.875" style="1" customWidth="1"/>
@@ -1217,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1226,34 +1246,34 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1317,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -1326,163 +1346,143 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1001</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1002</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1003</v>
+      <c r="A6" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1004</v>
+      <c r="A7" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-50</v>
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1005</v>
+      <c r="A8" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
